--- a/published-data/fonds-solidarite/fds-2020-11-22/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-11-22/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12021</v>
+        <v>12049</v>
       </c>
       <c r="D2" t="n">
-        <v>16560509</v>
+        <v>16624207</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23167</v>
+        <v>23291</v>
       </c>
       <c r="D4" t="n">
-        <v>29625729</v>
+        <v>29811265</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -534,10 +534,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D5" t="n">
-        <v>382761</v>
+        <v>395751</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1302</v>
+        <v>1308</v>
       </c>
       <c r="D6" t="n">
-        <v>1646341</v>
+        <v>1659169</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>61247</v>
+        <v>61401</v>
       </c>
       <c r="D7" t="n">
-        <v>88319908</v>
+        <v>88657169</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>83785</v>
+        <v>84312</v>
       </c>
       <c r="D8" t="n">
-        <v>113009437</v>
+        <v>114037866</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>34129</v>
+        <v>34629</v>
       </c>
       <c r="D9" t="n">
-        <v>49988216</v>
+        <v>51282984</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>80929</v>
+        <v>81855</v>
       </c>
       <c r="D10" t="n">
-        <v>122732733</v>
+        <v>125597630</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>11147</v>
+        <v>11243</v>
       </c>
       <c r="D11" t="n">
-        <v>14916842</v>
+        <v>15108735</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4101</v>
+        <v>4129</v>
       </c>
       <c r="D12" t="n">
-        <v>5839598</v>
+        <v>5889746</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15889</v>
+        <v>15973</v>
       </c>
       <c r="D13" t="n">
-        <v>21834130</v>
+        <v>22038837</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>52484</v>
+        <v>52882</v>
       </c>
       <c r="D14" t="n">
-        <v>71852233</v>
+        <v>72709621</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -914,10 +914,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>26215</v>
+        <v>26466</v>
       </c>
       <c r="D15" t="n">
-        <v>36084133</v>
+        <v>36778351</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>49955</v>
+        <v>50327</v>
       </c>
       <c r="D17" t="n">
-        <v>63500572</v>
+        <v>64121125</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1028,10 +1028,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>48406</v>
+        <v>48464</v>
       </c>
       <c r="D18" t="n">
-        <v>64546372</v>
+        <v>64615992</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1066,10 +1066,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>42277</v>
+        <v>42863</v>
       </c>
       <c r="D19" t="n">
-        <v>54759801</v>
+        <v>56117859</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1104,10 +1104,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>53176</v>
+        <v>53761</v>
       </c>
       <c r="D20" t="n">
-        <v>63989868</v>
+        <v>64472258</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1142,10 +1142,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4102</v>
+        <v>4115</v>
       </c>
       <c r="D21" t="n">
-        <v>5705630</v>
+        <v>5737029</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1218,10 +1218,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>6373</v>
+        <v>6400</v>
       </c>
       <c r="D23" t="n">
-        <v>8041661</v>
+        <v>8108490</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>14761</v>
+        <v>14785</v>
       </c>
       <c r="D26" t="n">
-        <v>21152022</v>
+        <v>21194458</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1370,10 +1370,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>25130</v>
+        <v>25267</v>
       </c>
       <c r="D27" t="n">
-        <v>33082920</v>
+        <v>33317232</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1408,10 +1408,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3651</v>
+        <v>3681</v>
       </c>
       <c r="D28" t="n">
-        <v>5125525</v>
+        <v>5231088</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>22859</v>
+        <v>23087</v>
       </c>
       <c r="D29" t="n">
-        <v>33347570</v>
+        <v>33884467</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2034</v>
+        <v>2055</v>
       </c>
       <c r="D30" t="n">
-        <v>2620681</v>
+        <v>2658796</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>926</v>
+        <v>931</v>
       </c>
       <c r="D31" t="n">
-        <v>1274397</v>
+        <v>1281842</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1560,10 +1560,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3412</v>
+        <v>3423</v>
       </c>
       <c r="D32" t="n">
-        <v>4539015</v>
+        <v>4550554</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>9980</v>
+        <v>10035</v>
       </c>
       <c r="D33" t="n">
-        <v>13444174</v>
+        <v>13530642</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1636,10 +1636,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5209</v>
+        <v>5247</v>
       </c>
       <c r="D34" t="n">
-        <v>6922948</v>
+        <v>7012270</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>7555</v>
+        <v>7608</v>
       </c>
       <c r="D36" t="n">
-        <v>8952605</v>
+        <v>9026852</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1750,10 +1750,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>10609</v>
+        <v>10620</v>
       </c>
       <c r="D37" t="n">
-        <v>14018813</v>
+        <v>14029025</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1788,10 +1788,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>10590</v>
+        <v>10715</v>
       </c>
       <c r="D38" t="n">
-        <v>12987792</v>
+        <v>13208214</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>15953</v>
+        <v>16133</v>
       </c>
       <c r="D39" t="n">
-        <v>19190823</v>
+        <v>19301164</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3345</v>
+        <v>3357</v>
       </c>
       <c r="D40" t="n">
-        <v>4590871</v>
+        <v>4618028</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>8625</v>
+        <v>8662</v>
       </c>
       <c r="D42" t="n">
-        <v>10522138</v>
+        <v>10568456</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2054,10 +2054,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>16248</v>
+        <v>16259</v>
       </c>
       <c r="D45" t="n">
-        <v>23181992</v>
+        <v>23207531</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2092,10 +2092,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>26675</v>
+        <v>26831</v>
       </c>
       <c r="D46" t="n">
-        <v>35607747</v>
+        <v>35845915</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2130,10 +2130,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5003</v>
+        <v>5046</v>
       </c>
       <c r="D47" t="n">
-        <v>7109971</v>
+        <v>7231183</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2168,10 +2168,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>29026</v>
+        <v>29255</v>
       </c>
       <c r="D48" t="n">
-        <v>42127590</v>
+        <v>42552930</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3443</v>
+        <v>3473</v>
       </c>
       <c r="D49" t="n">
-        <v>4433065</v>
+        <v>4492412</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2244,10 +2244,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1215</v>
+        <v>1220</v>
       </c>
       <c r="D50" t="n">
-        <v>1734167</v>
+        <v>1749333</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2282,10 +2282,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4999</v>
+        <v>5006</v>
       </c>
       <c r="D51" t="n">
-        <v>6587517</v>
+        <v>6602399</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>14918</v>
+        <v>15010</v>
       </c>
       <c r="D52" t="n">
-        <v>20170415</v>
+        <v>20349504</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2358,10 +2358,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6488</v>
+        <v>6530</v>
       </c>
       <c r="D53" t="n">
-        <v>8524189</v>
+        <v>8633386</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>8352</v>
+        <v>8399</v>
       </c>
       <c r="D55" t="n">
-        <v>10105737</v>
+        <v>10164178</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2472,10 +2472,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>17570</v>
+        <v>17584</v>
       </c>
       <c r="D56" t="n">
-        <v>23566044</v>
+        <v>23578750</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2510,10 +2510,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>12866</v>
+        <v>13010</v>
       </c>
       <c r="D57" t="n">
-        <v>15868975</v>
+        <v>16068384</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>17835</v>
+        <v>18044</v>
       </c>
       <c r="D58" t="n">
-        <v>21591736</v>
+        <v>21738570</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2586,10 +2586,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2944</v>
+        <v>2951</v>
       </c>
       <c r="D59" t="n">
-        <v>4050609</v>
+        <v>4059440</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5535</v>
+        <v>5559</v>
       </c>
       <c r="D60" t="n">
-        <v>6989150</v>
+        <v>7013484</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2700,10 +2700,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D62" t="n">
-        <v>335623</v>
+        <v>337123</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2738,10 +2738,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>14534</v>
+        <v>14557</v>
       </c>
       <c r="D63" t="n">
-        <v>20837533</v>
+        <v>20911413</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2776,10 +2776,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>20625</v>
+        <v>20745</v>
       </c>
       <c r="D64" t="n">
-        <v>27068677</v>
+        <v>27291681</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2814,10 +2814,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5754</v>
+        <v>5814</v>
       </c>
       <c r="D65" t="n">
-        <v>8358589</v>
+        <v>8528054</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2852,10 +2852,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>18628</v>
+        <v>18812</v>
       </c>
       <c r="D66" t="n">
-        <v>27356266</v>
+        <v>27746916</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2890,10 +2890,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2250</v>
+        <v>2264</v>
       </c>
       <c r="D67" t="n">
-        <v>2995380</v>
+        <v>3032542</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2928,10 +2928,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="D68" t="n">
-        <v>1144148</v>
+        <v>1147158</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2966,10 +2966,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3564</v>
+        <v>3585</v>
       </c>
       <c r="D69" t="n">
-        <v>4827179</v>
+        <v>4865817</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3004,10 +3004,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>9460</v>
+        <v>9526</v>
       </c>
       <c r="D70" t="n">
-        <v>12867097</v>
+        <v>13000840</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3042,10 +3042,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5304</v>
+        <v>5339</v>
       </c>
       <c r="D71" t="n">
-        <v>7079723</v>
+        <v>7161768</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>6044</v>
+        <v>6088</v>
       </c>
       <c r="D73" t="n">
-        <v>7425909</v>
+        <v>7481579</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3156,10 +3156,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>9043</v>
+        <v>9048</v>
       </c>
       <c r="D74" t="n">
-        <v>11889260</v>
+        <v>11893942</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>9387</v>
+        <v>9489</v>
       </c>
       <c r="D75" t="n">
-        <v>12005152</v>
+        <v>12223759</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>14350</v>
+        <v>14555</v>
       </c>
       <c r="D76" t="n">
-        <v>17298076</v>
+        <v>17447338</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3270,10 +3270,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2800</v>
+        <v>2806</v>
       </c>
       <c r="D77" t="n">
-        <v>3914166</v>
+        <v>3932556</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3308,10 +3308,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2186</v>
+        <v>2191</v>
       </c>
       <c r="D78" t="n">
-        <v>2887007</v>
+        <v>2893120</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3384,10 +3384,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4906</v>
+        <v>4912</v>
       </c>
       <c r="D80" t="n">
-        <v>6976673</v>
+        <v>6984873</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3422,10 +3422,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5699</v>
+        <v>5724</v>
       </c>
       <c r="D81" t="n">
-        <v>8021403</v>
+        <v>8071231</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3460,10 +3460,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1068</v>
+        <v>1073</v>
       </c>
       <c r="D82" t="n">
-        <v>1536226</v>
+        <v>1543726</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3498,10 +3498,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>7571</v>
+        <v>7641</v>
       </c>
       <c r="D83" t="n">
-        <v>11227981</v>
+        <v>11368028</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3536,10 +3536,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D84" t="n">
-        <v>606899</v>
+        <v>609899</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1651</v>
+        <v>1659</v>
       </c>
       <c r="D86" t="n">
-        <v>2315786</v>
+        <v>2341759</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3650,10 +3650,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3989</v>
+        <v>4014</v>
       </c>
       <c r="D87" t="n">
-        <v>5714834</v>
+        <v>5788396</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3688,10 +3688,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2399</v>
+        <v>2411</v>
       </c>
       <c r="D88" t="n">
-        <v>3177752</v>
+        <v>3210554</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3726,10 +3726,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1298</v>
+        <v>1316</v>
       </c>
       <c r="D89" t="n">
-        <v>1580227</v>
+        <v>1600492</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1844</v>
+        <v>1848</v>
       </c>
       <c r="D90" t="n">
-        <v>2469138</v>
+        <v>2473239</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3802,10 +3802,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1739</v>
+        <v>1759</v>
       </c>
       <c r="D91" t="n">
-        <v>2345311</v>
+        <v>2383277</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3840,10 +3840,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2977</v>
+        <v>2993</v>
       </c>
       <c r="D92" t="n">
-        <v>3609609</v>
+        <v>3622724</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3878,10 +3878,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5815</v>
+        <v>5827</v>
       </c>
       <c r="D93" t="n">
-        <v>8240882</v>
+        <v>8274260</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3954,10 +3954,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>11262</v>
+        <v>11318</v>
       </c>
       <c r="D95" t="n">
-        <v>14623976</v>
+        <v>14714788</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4030,10 +4030,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="D97" t="n">
-        <v>1647038</v>
+        <v>1659128</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4068,10 +4068,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>30656</v>
+        <v>30698</v>
       </c>
       <c r="D98" t="n">
-        <v>44091491</v>
+        <v>44171867</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -4106,10 +4106,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>46784</v>
+        <v>47024</v>
       </c>
       <c r="D99" t="n">
-        <v>62430773</v>
+        <v>62917286</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -4144,10 +4144,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>11027</v>
+        <v>11162</v>
       </c>
       <c r="D100" t="n">
-        <v>15686633</v>
+        <v>16022911</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -4182,10 +4182,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>37820</v>
+        <v>38202</v>
       </c>
       <c r="D101" t="n">
-        <v>55641750</v>
+        <v>56469514</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4220,10 +4220,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>4449</v>
+        <v>4481</v>
       </c>
       <c r="D102" t="n">
-        <v>5878687</v>
+        <v>5933671</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4258,10 +4258,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1975</v>
+        <v>1978</v>
       </c>
       <c r="D103" t="n">
-        <v>2739240</v>
+        <v>2745808</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4296,10 +4296,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>6201</v>
+        <v>6233</v>
       </c>
       <c r="D104" t="n">
-        <v>8362856</v>
+        <v>8412615</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4334,10 +4334,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>22107</v>
+        <v>22255</v>
       </c>
       <c r="D105" t="n">
-        <v>29688221</v>
+        <v>29940497</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>10219</v>
+        <v>10298</v>
       </c>
       <c r="D106" t="n">
-        <v>13737624</v>
+        <v>13980745</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4448,10 +4448,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>12512</v>
+        <v>12588</v>
       </c>
       <c r="D108" t="n">
-        <v>15067984</v>
+        <v>15168839</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4486,10 +4486,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>21873</v>
+        <v>21886</v>
       </c>
       <c r="D109" t="n">
-        <v>29682590</v>
+        <v>29703509</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4524,10 +4524,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>17919</v>
+        <v>18116</v>
       </c>
       <c r="D110" t="n">
-        <v>22031372</v>
+        <v>22429765</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4562,10 +4562,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>32586</v>
+        <v>32981</v>
       </c>
       <c r="D111" t="n">
-        <v>38521793</v>
+        <v>38797537</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4630,10 +4630,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>8178</v>
+        <v>8210</v>
       </c>
       <c r="D113" t="n">
-        <v>11295483</v>
+        <v>11374544</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4706,10 +4706,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>3456</v>
+        <v>3473</v>
       </c>
       <c r="D115" t="n">
-        <v>4899241</v>
+        <v>4930875</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4820,10 +4820,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>5580</v>
+        <v>5584</v>
       </c>
       <c r="D118" t="n">
-        <v>8081972</v>
+        <v>8085707</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4858,10 +4858,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>9266</v>
+        <v>9286</v>
       </c>
       <c r="D119" t="n">
-        <v>12990207</v>
+        <v>13032234</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4896,10 +4896,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>2842</v>
+        <v>2871</v>
       </c>
       <c r="D120" t="n">
-        <v>4036151</v>
+        <v>4087573</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4934,10 +4934,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>9182</v>
+        <v>9312</v>
       </c>
       <c r="D121" t="n">
-        <v>13604435</v>
+        <v>13908328</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4972,10 +4972,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="D122" t="n">
-        <v>1261578</v>
+        <v>1273319</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -5048,10 +5048,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1317</v>
+        <v>1322</v>
       </c>
       <c r="D124" t="n">
-        <v>1811111</v>
+        <v>1816997</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -5086,10 +5086,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>3476</v>
+        <v>3490</v>
       </c>
       <c r="D125" t="n">
-        <v>4973890</v>
+        <v>5018355</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -5124,10 +5124,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>5025</v>
+        <v>5076</v>
       </c>
       <c r="D126" t="n">
-        <v>7180124</v>
+        <v>7302994</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -5162,10 +5162,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2101</v>
+        <v>2105</v>
       </c>
       <c r="D127" t="n">
-        <v>2674317</v>
+        <v>2678112</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -5200,10 +5200,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="D128" t="n">
-        <v>3326864</v>
+        <v>3328364</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -5238,10 +5238,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>2058</v>
+        <v>2080</v>
       </c>
       <c r="D129" t="n">
-        <v>2972877</v>
+        <v>3049713</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -5276,10 +5276,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>3265</v>
+        <v>3275</v>
       </c>
       <c r="D130" t="n">
-        <v>4264973</v>
+        <v>4286440</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -5344,10 +5344,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>3940</v>
+        <v>3944</v>
       </c>
       <c r="D132" t="n">
-        <v>6810819</v>
+        <v>6824269</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -5420,10 +5420,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1791</v>
+        <v>1797</v>
       </c>
       <c r="D134" t="n">
-        <v>3524234</v>
+        <v>3557149</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -5534,10 +5534,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>4941</v>
+        <v>4955</v>
       </c>
       <c r="D137" t="n">
-        <v>10535143</v>
+        <v>10625290</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5572,10 +5572,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>4225</v>
+        <v>4237</v>
       </c>
       <c r="D138" t="n">
-        <v>8446307</v>
+        <v>8486506</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5610,10 +5610,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1398</v>
+        <v>1408</v>
       </c>
       <c r="D139" t="n">
-        <v>2898273</v>
+        <v>2931423</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5648,10 +5648,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>3003</v>
+        <v>3024</v>
       </c>
       <c r="D140" t="n">
-        <v>6068584</v>
+        <v>6150244</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5686,10 +5686,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D141" t="n">
-        <v>769841</v>
+        <v>771341</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5724,10 +5724,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D142" t="n">
-        <v>414735</v>
+        <v>418029</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -5800,10 +5800,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1718</v>
+        <v>1723</v>
       </c>
       <c r="D144" t="n">
-        <v>3371122</v>
+        <v>3401235</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5838,10 +5838,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1878</v>
+        <v>1884</v>
       </c>
       <c r="D145" t="n">
-        <v>3772867</v>
+        <v>3805206</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5876,10 +5876,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="D146" t="n">
-        <v>1210944</v>
+        <v>1222269</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -5914,10 +5914,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D147" t="n">
-        <v>1250350</v>
+        <v>1250564</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -5952,10 +5952,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="D148" t="n">
-        <v>1358574</v>
+        <v>1364574</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -5990,10 +5990,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1307</v>
+        <v>1313</v>
       </c>
       <c r="D149" t="n">
-        <v>2388194</v>
+        <v>2404292</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -6028,10 +6028,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>3036</v>
+        <v>3051</v>
       </c>
       <c r="D150" t="n">
-        <v>4174854</v>
+        <v>4194725</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -6104,10 +6104,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>8692</v>
+        <v>8746</v>
       </c>
       <c r="D152" t="n">
-        <v>10781772</v>
+        <v>10852668</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -6218,10 +6218,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>25350</v>
+        <v>25417</v>
       </c>
       <c r="D155" t="n">
-        <v>36145117</v>
+        <v>36289604</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -6256,10 +6256,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>45016</v>
+        <v>45316</v>
       </c>
       <c r="D156" t="n">
-        <v>57735005</v>
+        <v>58201994</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -6294,10 +6294,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>18300</v>
+        <v>18578</v>
       </c>
       <c r="D157" t="n">
-        <v>26512040</v>
+        <v>27168135</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -6332,10 +6332,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>37180</v>
+        <v>37616</v>
       </c>
       <c r="D158" t="n">
-        <v>56307370</v>
+        <v>57512499</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -6370,10 +6370,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>4439</v>
+        <v>4465</v>
       </c>
       <c r="D159" t="n">
-        <v>5903575</v>
+        <v>5977762</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -6408,10 +6408,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>2018</v>
+        <v>2031</v>
       </c>
       <c r="D160" t="n">
-        <v>2863083</v>
+        <v>2897473</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -6446,10 +6446,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>5547</v>
+        <v>5573</v>
       </c>
       <c r="D161" t="n">
-        <v>7562544</v>
+        <v>7635347</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -6484,10 +6484,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>21568</v>
+        <v>21759</v>
       </c>
       <c r="D162" t="n">
-        <v>29659245</v>
+        <v>30061747</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -6522,10 +6522,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>10041</v>
+        <v>10119</v>
       </c>
       <c r="D163" t="n">
-        <v>13436242</v>
+        <v>13728490</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -6598,10 +6598,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>11067</v>
+        <v>11155</v>
       </c>
       <c r="D165" t="n">
-        <v>13518563</v>
+        <v>13644939</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -6636,10 +6636,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>22424</v>
+        <v>22449</v>
       </c>
       <c r="D166" t="n">
-        <v>30323392</v>
+        <v>30357940</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>17595</v>
+        <v>17847</v>
       </c>
       <c r="D167" t="n">
-        <v>22502706</v>
+        <v>23068206</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -6712,10 +6712,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>30975</v>
+        <v>31353</v>
       </c>
       <c r="D168" t="n">
-        <v>35954644</v>
+        <v>36220053</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -6750,10 +6750,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="D169" t="n">
-        <v>1334145</v>
+        <v>1344279</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -6826,10 +6826,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>24478</v>
+        <v>24672</v>
       </c>
       <c r="D171" t="n">
-        <v>33118418</v>
+        <v>33543373</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -6864,10 +6864,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="D172" t="n">
-        <v>778594</v>
+        <v>822843</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -6902,10 +6902,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="D173" t="n">
-        <v>1461348</v>
+        <v>1470298</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -6940,10 +6940,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>68305</v>
+        <v>68567</v>
       </c>
       <c r="D174" t="n">
-        <v>99220936</v>
+        <v>99901358</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -6978,10 +6978,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>132124</v>
+        <v>133267</v>
       </c>
       <c r="D175" t="n">
-        <v>186856980</v>
+        <v>190066461</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -7016,10 +7016,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>278032</v>
+        <v>283750</v>
       </c>
       <c r="D176" t="n">
-        <v>427157958</v>
+        <v>443129031</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -7054,10 +7054,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>111434</v>
+        <v>113198</v>
       </c>
       <c r="D177" t="n">
-        <v>183064269</v>
+        <v>190480402</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -7092,10 +7092,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>48953</v>
+        <v>49512</v>
       </c>
       <c r="D178" t="n">
-        <v>70024579</v>
+        <v>71566055</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -7130,10 +7130,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>9368</v>
+        <v>9459</v>
       </c>
       <c r="D179" t="n">
-        <v>13791866</v>
+        <v>14067534</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -7168,10 +7168,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>23451</v>
+        <v>23630</v>
       </c>
       <c r="D180" t="n">
-        <v>33939526</v>
+        <v>34341830</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -7206,10 +7206,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>161061</v>
+        <v>162581</v>
       </c>
       <c r="D181" t="n">
-        <v>226857407</v>
+        <v>230356377</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -7244,10 +7244,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>52616</v>
+        <v>53322</v>
       </c>
       <c r="D182" t="n">
-        <v>77637000</v>
+        <v>79760590</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -7320,10 +7320,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>47955</v>
+        <v>48518</v>
       </c>
       <c r="D184" t="n">
-        <v>59375418</v>
+        <v>60378847</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -7358,10 +7358,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>59738</v>
+        <v>59859</v>
       </c>
       <c r="D185" t="n">
-        <v>80443312</v>
+        <v>80616192</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -7396,10 +7396,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>98888</v>
+        <v>100262</v>
       </c>
       <c r="D186" t="n">
-        <v>134100199</v>
+        <v>137384619</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -7434,10 +7434,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>68328</v>
+        <v>69059</v>
       </c>
       <c r="D187" t="n">
-        <v>89356938</v>
+        <v>90454437</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -7472,10 +7472,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>5370</v>
+        <v>5381</v>
       </c>
       <c r="D188" t="n">
-        <v>7146204</v>
+        <v>7172020</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -7548,10 +7548,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>4396</v>
+        <v>4410</v>
       </c>
       <c r="D190" t="n">
-        <v>5876058</v>
+        <v>5902570</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -7662,10 +7662,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>7745</v>
+        <v>7748</v>
       </c>
       <c r="D193" t="n">
-        <v>11274200</v>
+        <v>11290859</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -7700,10 +7700,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>14524</v>
+        <v>14566</v>
       </c>
       <c r="D194" t="n">
-        <v>19936156</v>
+        <v>20068222</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -7738,10 +7738,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2170</v>
+        <v>2178</v>
       </c>
       <c r="D195" t="n">
-        <v>3042074</v>
+        <v>3049984</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -7776,10 +7776,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>9786</v>
+        <v>9860</v>
       </c>
       <c r="D196" t="n">
-        <v>14003615</v>
+        <v>14149333</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -7814,10 +7814,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1167</v>
+        <v>1173</v>
       </c>
       <c r="D197" t="n">
-        <v>1588529</v>
+        <v>1598739</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -7890,10 +7890,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1788</v>
+        <v>1791</v>
       </c>
       <c r="D199" t="n">
-        <v>2477573</v>
+        <v>2481363</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -7928,10 +7928,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>4745</v>
+        <v>4767</v>
       </c>
       <c r="D200" t="n">
-        <v>6677331</v>
+        <v>6731449</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -7966,10 +7966,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>3116</v>
+        <v>3132</v>
       </c>
       <c r="D201" t="n">
-        <v>4404842</v>
+        <v>4437721</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -8004,10 +8004,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>4038</v>
+        <v>4047</v>
       </c>
       <c r="D202" t="n">
-        <v>5233213</v>
+        <v>5245275</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -8042,10 +8042,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>5279</v>
+        <v>5280</v>
       </c>
       <c r="D203" t="n">
-        <v>7456771</v>
+        <v>7457921</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -8080,10 +8080,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>3652</v>
+        <v>3680</v>
       </c>
       <c r="D204" t="n">
-        <v>5009168</v>
+        <v>5068602</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -8118,10 +8118,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>5376</v>
+        <v>5378</v>
       </c>
       <c r="D205" t="n">
-        <v>6864275</v>
+        <v>6869069</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -8156,10 +8156,10 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>2127</v>
+        <v>2142</v>
       </c>
       <c r="D206" t="n">
-        <v>2728209</v>
+        <v>2760333</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -8194,10 +8194,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>2252</v>
+        <v>2266</v>
       </c>
       <c r="D207" t="n">
-        <v>3070481</v>
+        <v>3089715</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -8308,10 +8308,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>3242</v>
+        <v>3245</v>
       </c>
       <c r="D210" t="n">
-        <v>4696667</v>
+        <v>4711854</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -8346,10 +8346,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>5969</v>
+        <v>5996</v>
       </c>
       <c r="D211" t="n">
-        <v>8297428</v>
+        <v>8362407</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -8384,10 +8384,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>2387</v>
+        <v>2403</v>
       </c>
       <c r="D212" t="n">
-        <v>3408264</v>
+        <v>3444559</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -8422,10 +8422,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>4530</v>
+        <v>4579</v>
       </c>
       <c r="D213" t="n">
-        <v>6665781</v>
+        <v>6813132</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -8460,10 +8460,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="D214" t="n">
-        <v>917729</v>
+        <v>929222</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -8536,10 +8536,10 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="D216" t="n">
-        <v>1122683</v>
+        <v>1142177</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -8574,10 +8574,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>2797</v>
+        <v>2812</v>
       </c>
       <c r="D217" t="n">
-        <v>3910194</v>
+        <v>3941312</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -8612,10 +8612,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>3096</v>
+        <v>3126</v>
       </c>
       <c r="D218" t="n">
-        <v>4413585</v>
+        <v>4477252</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -8650,10 +8650,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>1536</v>
+        <v>1545</v>
       </c>
       <c r="D219" t="n">
-        <v>1991269</v>
+        <v>2009493</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -8688,10 +8688,10 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="D220" t="n">
-        <v>2741457</v>
+        <v>2747357</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -8726,10 +8726,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1481</v>
+        <v>1496</v>
       </c>
       <c r="D221" t="n">
-        <v>2097793</v>
+        <v>2139562</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -8764,10 +8764,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>3027</v>
+        <v>3052</v>
       </c>
       <c r="D222" t="n">
-        <v>3962282</v>
+        <v>3998478</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -8832,10 +8832,10 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>5708</v>
+        <v>5728</v>
       </c>
       <c r="D224" t="n">
-        <v>11804320</v>
+        <v>11873253</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -8870,10 +8870,10 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="D225" t="n">
-        <v>2155719</v>
+        <v>2189432</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -8946,10 +8946,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>3435</v>
+        <v>3454</v>
       </c>
       <c r="D227" t="n">
-        <v>7269438</v>
+        <v>7399604</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -8984,10 +8984,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>15546</v>
+        <v>15596</v>
       </c>
       <c r="D228" t="n">
-        <v>31513880</v>
+        <v>31764301</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -9022,10 +9022,10 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>2959</v>
+        <v>2976</v>
       </c>
       <c r="D229" t="n">
-        <v>6194592</v>
+        <v>6316229</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -9060,10 +9060,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>1693</v>
+        <v>1708</v>
       </c>
       <c r="D230" t="n">
-        <v>3501767</v>
+        <v>3546094</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -9098,10 +9098,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D231" t="n">
-        <v>371436</v>
+        <v>375076</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -9212,10 +9212,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="D234" t="n">
-        <v>1055562</v>
+        <v>1066213</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -9250,10 +9250,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="D235" t="n">
-        <v>1263367</v>
+        <v>1301511</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -9288,10 +9288,10 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D236" t="n">
-        <v>808409</v>
+        <v>823232</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -9364,10 +9364,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D238" t="n">
-        <v>595612</v>
+        <v>597112</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -9402,10 +9402,10 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="D239" t="n">
-        <v>1063001</v>
+        <v>1086191</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -9440,10 +9440,10 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>3411</v>
+        <v>3420</v>
       </c>
       <c r="D240" t="n">
-        <v>4700179</v>
+        <v>4725954</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -9516,10 +9516,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>6007</v>
+        <v>6043</v>
       </c>
       <c r="D242" t="n">
-        <v>7578756</v>
+        <v>7632950</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -9630,10 +9630,10 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>15673</v>
+        <v>15690</v>
       </c>
       <c r="D245" t="n">
-        <v>22452643</v>
+        <v>22498751</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -9668,10 +9668,10 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>28040</v>
+        <v>28192</v>
       </c>
       <c r="D246" t="n">
-        <v>36679992</v>
+        <v>36897244</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -9706,10 +9706,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>6072</v>
+        <v>6149</v>
       </c>
       <c r="D247" t="n">
-        <v>8775456</v>
+        <v>8985065</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -9744,10 +9744,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>24704</v>
+        <v>24960</v>
       </c>
       <c r="D248" t="n">
-        <v>36659669</v>
+        <v>37305790</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -9782,10 +9782,10 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>2445</v>
+        <v>2457</v>
       </c>
       <c r="D249" t="n">
-        <v>3190004</v>
+        <v>3216506</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -9820,10 +9820,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>1244</v>
+        <v>1252</v>
       </c>
       <c r="D250" t="n">
-        <v>1736146</v>
+        <v>1746361</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -9858,10 +9858,10 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>4168</v>
+        <v>4187</v>
       </c>
       <c r="D251" t="n">
-        <v>5585255</v>
+        <v>5623293</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -9896,10 +9896,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>12632</v>
+        <v>12725</v>
       </c>
       <c r="D252" t="n">
-        <v>17253642</v>
+        <v>17462146</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -9934,10 +9934,10 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>6234</v>
+        <v>6294</v>
       </c>
       <c r="D253" t="n">
-        <v>8426466</v>
+        <v>8568996</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -10010,10 +10010,10 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>7208</v>
+        <v>7259</v>
       </c>
       <c r="D255" t="n">
-        <v>8569617</v>
+        <v>8628518</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -10048,10 +10048,10 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>10727</v>
+        <v>10733</v>
       </c>
       <c r="D256" t="n">
-        <v>14103998</v>
+        <v>14111138</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -10086,10 +10086,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>11176</v>
+        <v>11307</v>
       </c>
       <c r="D257" t="n">
-        <v>14024280</v>
+        <v>14283776</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -10124,10 +10124,10 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>18864</v>
+        <v>19063</v>
       </c>
       <c r="D258" t="n">
-        <v>22530423</v>
+        <v>22660859</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -10162,10 +10162,10 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>13117</v>
+        <v>13139</v>
       </c>
       <c r="D259" t="n">
-        <v>18316607</v>
+        <v>18374624</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -10238,10 +10238,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>18415</v>
+        <v>18487</v>
       </c>
       <c r="D261" t="n">
-        <v>22551594</v>
+        <v>22657309</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -10314,10 +10314,10 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>963</v>
+        <v>970</v>
       </c>
       <c r="D263" t="n">
-        <v>1098405</v>
+        <v>1107424</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -10352,10 +10352,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>45434</v>
+        <v>45480</v>
       </c>
       <c r="D264" t="n">
-        <v>64464889</v>
+        <v>64545852</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -10390,10 +10390,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>68840</v>
+        <v>69122</v>
       </c>
       <c r="D265" t="n">
-        <v>90818553</v>
+        <v>91341444</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -10428,10 +10428,10 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>15631</v>
+        <v>15787</v>
       </c>
       <c r="D266" t="n">
-        <v>22246639</v>
+        <v>22699051</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -10466,10 +10466,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>55195</v>
+        <v>55718</v>
       </c>
       <c r="D267" t="n">
-        <v>79517698</v>
+        <v>80579921</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -10504,10 +10504,10 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>6982</v>
+        <v>7029</v>
       </c>
       <c r="D268" t="n">
-        <v>9227395</v>
+        <v>9329501</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -10542,10 +10542,10 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>3019</v>
+        <v>3023</v>
       </c>
       <c r="D269" t="n">
-        <v>4240577</v>
+        <v>4259185</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -10580,10 +10580,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>12038</v>
+        <v>12074</v>
       </c>
       <c r="D270" t="n">
-        <v>16004320</v>
+        <v>16089874</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -10618,10 +10618,10 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>36310</v>
+        <v>36507</v>
       </c>
       <c r="D271" t="n">
-        <v>48966694</v>
+        <v>49323381</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -10656,10 +10656,10 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>19192</v>
+        <v>19324</v>
       </c>
       <c r="D272" t="n">
-        <v>25344868</v>
+        <v>25687774</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -10732,10 +10732,10 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>21395</v>
+        <v>21568</v>
       </c>
       <c r="D274" t="n">
-        <v>24854453</v>
+        <v>25091547</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -10770,10 +10770,10 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>34858</v>
+        <v>34879</v>
       </c>
       <c r="D275" t="n">
-        <v>45850071</v>
+        <v>45868359</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -10808,10 +10808,10 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>28064</v>
+        <v>28350</v>
       </c>
       <c r="D276" t="n">
-        <v>34987662</v>
+        <v>35491615</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -10846,10 +10846,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>43458</v>
+        <v>43896</v>
       </c>
       <c r="D277" t="n">
-        <v>51247090</v>
+        <v>51543152</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -10884,10 +10884,10 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>14246</v>
+        <v>14301</v>
       </c>
       <c r="D278" t="n">
-        <v>19310259</v>
+        <v>19410874</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -10960,10 +10960,10 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>20095</v>
+        <v>20188</v>
       </c>
       <c r="D280" t="n">
-        <v>24933887</v>
+        <v>25056410</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -11036,10 +11036,10 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="D282" t="n">
-        <v>1050718</v>
+        <v>1070882</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -11074,10 +11074,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>58831</v>
+        <v>58979</v>
       </c>
       <c r="D283" t="n">
-        <v>83513705</v>
+        <v>83783080</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -11112,10 +11112,10 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>78959</v>
+        <v>79512</v>
       </c>
       <c r="D284" t="n">
-        <v>105100786</v>
+        <v>106236387</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -11150,10 +11150,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>18537</v>
+        <v>18774</v>
       </c>
       <c r="D285" t="n">
-        <v>26661425</v>
+        <v>27267471</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -11188,10 +11188,10 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>68405</v>
+        <v>69129</v>
       </c>
       <c r="D286" t="n">
-        <v>101936419</v>
+        <v>104011129</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -11226,10 +11226,10 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>8524</v>
+        <v>8601</v>
       </c>
       <c r="D287" t="n">
-        <v>11144643</v>
+        <v>11280522</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -11264,10 +11264,10 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>3232</v>
+        <v>3244</v>
       </c>
       <c r="D288" t="n">
-        <v>4519327</v>
+        <v>4541752</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -11302,10 +11302,10 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>13746</v>
+        <v>13815</v>
       </c>
       <c r="D289" t="n">
-        <v>18475705</v>
+        <v>18617503</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -11340,10 +11340,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>41925</v>
+        <v>42221</v>
       </c>
       <c r="D290" t="n">
-        <v>57623794</v>
+        <v>58230441</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -11378,10 +11378,10 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>20850</v>
+        <v>20980</v>
       </c>
       <c r="D291" t="n">
-        <v>27754895</v>
+        <v>28071842</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -11454,10 +11454,10 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>26505</v>
+        <v>26754</v>
       </c>
       <c r="D293" t="n">
-        <v>31072288</v>
+        <v>31421089</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -11492,10 +11492,10 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>38256</v>
+        <v>38310</v>
       </c>
       <c r="D294" t="n">
-        <v>50554514</v>
+        <v>50609927</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -11530,10 +11530,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>33580</v>
+        <v>33967</v>
       </c>
       <c r="D295" t="n">
-        <v>42408858</v>
+        <v>43235896</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -11568,10 +11568,10 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>44884</v>
+        <v>45350</v>
       </c>
       <c r="D296" t="n">
-        <v>51827200</v>
+        <v>52228766</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -11606,10 +11606,10 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>4244</v>
+        <v>4257</v>
       </c>
       <c r="D297" t="n">
-        <v>5949362</v>
+        <v>5973121</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -11682,10 +11682,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>8297</v>
+        <v>8322</v>
       </c>
       <c r="D299" t="n">
-        <v>10213288</v>
+        <v>10254447</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -11758,10 +11758,10 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D301" t="n">
-        <v>710933</v>
+        <v>713017</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -11796,10 +11796,10 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>18347</v>
+        <v>18364</v>
       </c>
       <c r="D302" t="n">
-        <v>26319731</v>
+        <v>26353193</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -11834,10 +11834,10 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>29832</v>
+        <v>29962</v>
       </c>
       <c r="D303" t="n">
-        <v>39196071</v>
+        <v>39396512</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -11872,10 +11872,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>8119</v>
+        <v>8212</v>
       </c>
       <c r="D304" t="n">
-        <v>11810049</v>
+        <v>12089679</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -11910,10 +11910,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>26272</v>
+        <v>26546</v>
       </c>
       <c r="D305" t="n">
-        <v>38099106</v>
+        <v>38627340</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -11948,10 +11948,10 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>4101</v>
+        <v>4128</v>
       </c>
       <c r="D306" t="n">
-        <v>5331483</v>
+        <v>5387681</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -11986,10 +11986,10 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>1862</v>
+        <v>1866</v>
       </c>
       <c r="D307" t="n">
-        <v>2636015</v>
+        <v>2638679</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -12024,10 +12024,10 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>5890</v>
+        <v>5907</v>
       </c>
       <c r="D308" t="n">
-        <v>7941437</v>
+        <v>7992990</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -12062,10 +12062,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>19375</v>
+        <v>19470</v>
       </c>
       <c r="D309" t="n">
-        <v>26278162</v>
+        <v>26432633</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -12100,10 +12100,10 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>7511</v>
+        <v>7558</v>
       </c>
       <c r="D310" t="n">
-        <v>10187149</v>
+        <v>10286871</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -12138,10 +12138,10 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>9464</v>
+        <v>9518</v>
       </c>
       <c r="D311" t="n">
-        <v>11275186</v>
+        <v>11336153</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -12176,10 +12176,10 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>19391</v>
+        <v>19401</v>
       </c>
       <c r="D312" t="n">
-        <v>25496328</v>
+        <v>25506133</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -12214,10 +12214,10 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>15403</v>
+        <v>15581</v>
       </c>
       <c r="D313" t="n">
-        <v>19420686</v>
+        <v>19783749</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -12252,10 +12252,10 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>22030</v>
+        <v>22323</v>
       </c>
       <c r="D314" t="n">
-        <v>26424529</v>
+        <v>26605394</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -12290,10 +12290,10 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>5920</v>
+        <v>5956</v>
       </c>
       <c r="D315" t="n">
-        <v>8198681</v>
+        <v>8290445</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -12366,10 +12366,10 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>19302</v>
+        <v>19413</v>
       </c>
       <c r="D317" t="n">
-        <v>25144258</v>
+        <v>25330349</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -12442,10 +12442,10 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D319" t="n">
-        <v>456510</v>
+        <v>458010</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -12480,10 +12480,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>51888</v>
+        <v>52052</v>
       </c>
       <c r="D320" t="n">
-        <v>74217648</v>
+        <v>74512045</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -12518,10 +12518,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>84007</v>
+        <v>84637</v>
       </c>
       <c r="D321" t="n">
-        <v>113527366</v>
+        <v>114687365</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -12556,10 +12556,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>33959</v>
+        <v>34529</v>
       </c>
       <c r="D322" t="n">
-        <v>51477811</v>
+        <v>53044210</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -12594,10 +12594,10 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>68009</v>
+        <v>68854</v>
       </c>
       <c r="D323" t="n">
-        <v>105501452</v>
+        <v>108226868</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -12632,10 +12632,10 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>9318</v>
+        <v>9400</v>
       </c>
       <c r="D324" t="n">
-        <v>12575195</v>
+        <v>12720365</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -12670,10 +12670,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>3659</v>
+        <v>3675</v>
       </c>
       <c r="D325" t="n">
-        <v>5205617</v>
+        <v>5243340</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -12708,10 +12708,10 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>17326</v>
+        <v>17418</v>
       </c>
       <c r="D326" t="n">
-        <v>24292714</v>
+        <v>24514036</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -12746,10 +12746,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>45360</v>
+        <v>45709</v>
       </c>
       <c r="D327" t="n">
-        <v>62704865</v>
+        <v>63483015</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -12784,10 +12784,10 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>26451</v>
+        <v>26703</v>
       </c>
       <c r="D328" t="n">
-        <v>36787828</v>
+        <v>37437974</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -12860,10 +12860,10 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>28289</v>
+        <v>28541</v>
       </c>
       <c r="D330" t="n">
-        <v>34350737</v>
+        <v>34719445</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -12898,10 +12898,10 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>35178</v>
+        <v>35218</v>
       </c>
       <c r="D331" t="n">
-        <v>46631269</v>
+        <v>46669006</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -12936,10 +12936,10 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>31587</v>
+        <v>31988</v>
       </c>
       <c r="D332" t="n">
-        <v>41804849</v>
+        <v>42720258</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -12974,10 +12974,10 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>45221</v>
+        <v>45635</v>
       </c>
       <c r="D333" t="n">
-        <v>53971261</v>
+        <v>54463010</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2020-11-22/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-11-22/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12049</v>
+        <v>12077</v>
       </c>
       <c r="D2" t="n">
-        <v>16624207</v>
+        <v>16687905</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23291</v>
+        <v>23415</v>
       </c>
       <c r="D4" t="n">
-        <v>29811265</v>
+        <v>29996801</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -534,10 +534,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D5" t="n">
-        <v>395751</v>
+        <v>408741</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1308</v>
+        <v>1314</v>
       </c>
       <c r="D6" t="n">
-        <v>1659169</v>
+        <v>1671997</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>61401</v>
+        <v>61555</v>
       </c>
       <c r="D7" t="n">
-        <v>88657169</v>
+        <v>88994430</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>84312</v>
+        <v>84839</v>
       </c>
       <c r="D8" t="n">
-        <v>114037866</v>
+        <v>115066295</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>34629</v>
+        <v>35129</v>
       </c>
       <c r="D9" t="n">
-        <v>51282984</v>
+        <v>52577752</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>81855</v>
+        <v>82781</v>
       </c>
       <c r="D10" t="n">
-        <v>125597630</v>
+        <v>128462527</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>11243</v>
+        <v>11339</v>
       </c>
       <c r="D11" t="n">
-        <v>15108735</v>
+        <v>15300628</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4129</v>
+        <v>4157</v>
       </c>
       <c r="D12" t="n">
-        <v>5889746</v>
+        <v>5939894</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15973</v>
+        <v>16057</v>
       </c>
       <c r="D13" t="n">
-        <v>22038837</v>
+        <v>22243544</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>52882</v>
+        <v>53280</v>
       </c>
       <c r="D14" t="n">
-        <v>72709621</v>
+        <v>73567009</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -914,10 +914,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>26466</v>
+        <v>26717</v>
       </c>
       <c r="D15" t="n">
-        <v>36778351</v>
+        <v>37472569</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>50327</v>
+        <v>50699</v>
       </c>
       <c r="D17" t="n">
-        <v>64121125</v>
+        <v>64741678</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1028,10 +1028,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>48464</v>
+        <v>48522</v>
       </c>
       <c r="D18" t="n">
-        <v>64615992</v>
+        <v>64685612</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1066,10 +1066,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>42863</v>
+        <v>43449</v>
       </c>
       <c r="D19" t="n">
-        <v>56117859</v>
+        <v>57475917</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1104,10 +1104,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>53761</v>
+        <v>54346</v>
       </c>
       <c r="D20" t="n">
-        <v>64472258</v>
+        <v>64954648</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1142,10 +1142,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4115</v>
+        <v>4128</v>
       </c>
       <c r="D21" t="n">
-        <v>5737029</v>
+        <v>5768428</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1218,10 +1218,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>6400</v>
+        <v>6427</v>
       </c>
       <c r="D23" t="n">
-        <v>8108490</v>
+        <v>8175319</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>14785</v>
+        <v>14809</v>
       </c>
       <c r="D26" t="n">
-        <v>21194458</v>
+        <v>21236894</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1370,10 +1370,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>25267</v>
+        <v>25404</v>
       </c>
       <c r="D27" t="n">
-        <v>33317232</v>
+        <v>33551544</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1408,10 +1408,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3681</v>
+        <v>3711</v>
       </c>
       <c r="D28" t="n">
-        <v>5231088</v>
+        <v>5336651</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>23087</v>
+        <v>23315</v>
       </c>
       <c r="D29" t="n">
-        <v>33884467</v>
+        <v>34421364</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2055</v>
+        <v>2076</v>
       </c>
       <c r="D30" t="n">
-        <v>2658796</v>
+        <v>2696911</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="D31" t="n">
-        <v>1281842</v>
+        <v>1289287</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1560,10 +1560,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3423</v>
+        <v>3434</v>
       </c>
       <c r="D32" t="n">
-        <v>4550554</v>
+        <v>4562093</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10035</v>
+        <v>10090</v>
       </c>
       <c r="D33" t="n">
-        <v>13530642</v>
+        <v>13617110</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1636,10 +1636,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5247</v>
+        <v>5285</v>
       </c>
       <c r="D34" t="n">
-        <v>7012270</v>
+        <v>7101592</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>7608</v>
+        <v>7661</v>
       </c>
       <c r="D36" t="n">
-        <v>9026852</v>
+        <v>9101099</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1750,10 +1750,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>10620</v>
+        <v>10631</v>
       </c>
       <c r="D37" t="n">
-        <v>14029025</v>
+        <v>14039237</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1788,10 +1788,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>10715</v>
+        <v>10840</v>
       </c>
       <c r="D38" t="n">
-        <v>13208214</v>
+        <v>13428636</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>16133</v>
+        <v>16313</v>
       </c>
       <c r="D39" t="n">
-        <v>19301164</v>
+        <v>19411505</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3357</v>
+        <v>3369</v>
       </c>
       <c r="D40" t="n">
-        <v>4618028</v>
+        <v>4645185</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>8662</v>
+        <v>8699</v>
       </c>
       <c r="D42" t="n">
-        <v>10568456</v>
+        <v>10614774</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2054,10 +2054,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>16259</v>
+        <v>16270</v>
       </c>
       <c r="D45" t="n">
-        <v>23207531</v>
+        <v>23233070</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2092,10 +2092,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>26831</v>
+        <v>26987</v>
       </c>
       <c r="D46" t="n">
-        <v>35845915</v>
+        <v>36084083</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2130,10 +2130,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5046</v>
+        <v>5089</v>
       </c>
       <c r="D47" t="n">
-        <v>7231183</v>
+        <v>7352395</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2168,10 +2168,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>29255</v>
+        <v>29484</v>
       </c>
       <c r="D48" t="n">
-        <v>42552930</v>
+        <v>42978270</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3473</v>
+        <v>3503</v>
       </c>
       <c r="D49" t="n">
-        <v>4492412</v>
+        <v>4551759</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2244,10 +2244,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1220</v>
+        <v>1225</v>
       </c>
       <c r="D50" t="n">
-        <v>1749333</v>
+        <v>1764499</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2282,10 +2282,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="D51" t="n">
-        <v>6602399</v>
+        <v>6617281</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>15010</v>
+        <v>15102</v>
       </c>
       <c r="D52" t="n">
-        <v>20349504</v>
+        <v>20528593</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2358,10 +2358,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6530</v>
+        <v>6572</v>
       </c>
       <c r="D53" t="n">
-        <v>8633386</v>
+        <v>8742583</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>8399</v>
+        <v>8446</v>
       </c>
       <c r="D55" t="n">
-        <v>10164178</v>
+        <v>10222619</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2472,10 +2472,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>17584</v>
+        <v>17598</v>
       </c>
       <c r="D56" t="n">
-        <v>23578750</v>
+        <v>23591456</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2510,10 +2510,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>13010</v>
+        <v>13154</v>
       </c>
       <c r="D57" t="n">
-        <v>16068384</v>
+        <v>16267793</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>18044</v>
+        <v>18253</v>
       </c>
       <c r="D58" t="n">
-        <v>21738570</v>
+        <v>21885404</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2586,10 +2586,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2951</v>
+        <v>2958</v>
       </c>
       <c r="D59" t="n">
-        <v>4059440</v>
+        <v>4068271</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5559</v>
+        <v>5583</v>
       </c>
       <c r="D60" t="n">
-        <v>7013484</v>
+        <v>7037818</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2700,10 +2700,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D62" t="n">
-        <v>337123</v>
+        <v>338623</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2738,10 +2738,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>14557</v>
+        <v>14580</v>
       </c>
       <c r="D63" t="n">
-        <v>20911413</v>
+        <v>20985293</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2776,10 +2776,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>20745</v>
+        <v>20865</v>
       </c>
       <c r="D64" t="n">
-        <v>27291681</v>
+        <v>27514685</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2814,10 +2814,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5814</v>
+        <v>5874</v>
       </c>
       <c r="D65" t="n">
-        <v>8528054</v>
+        <v>8697519</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2852,10 +2852,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>18812</v>
+        <v>18996</v>
       </c>
       <c r="D66" t="n">
-        <v>27746916</v>
+        <v>28137566</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2890,10 +2890,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2264</v>
+        <v>2278</v>
       </c>
       <c r="D67" t="n">
-        <v>3032542</v>
+        <v>3069704</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2928,10 +2928,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="D68" t="n">
-        <v>1147158</v>
+        <v>1150168</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2966,10 +2966,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3585</v>
+        <v>3606</v>
       </c>
       <c r="D69" t="n">
-        <v>4865817</v>
+        <v>4904455</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3004,10 +3004,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>9526</v>
+        <v>9592</v>
       </c>
       <c r="D70" t="n">
-        <v>13000840</v>
+        <v>13134583</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3042,10 +3042,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5339</v>
+        <v>5374</v>
       </c>
       <c r="D71" t="n">
-        <v>7161768</v>
+        <v>7243813</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>6088</v>
+        <v>6132</v>
       </c>
       <c r="D73" t="n">
-        <v>7481579</v>
+        <v>7537249</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3156,10 +3156,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>9048</v>
+        <v>9053</v>
       </c>
       <c r="D74" t="n">
-        <v>11893942</v>
+        <v>11898624</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>9489</v>
+        <v>9591</v>
       </c>
       <c r="D75" t="n">
-        <v>12223759</v>
+        <v>12442366</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>14555</v>
+        <v>14760</v>
       </c>
       <c r="D76" t="n">
-        <v>17447338</v>
+        <v>17596600</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3270,10 +3270,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2806</v>
+        <v>2812</v>
       </c>
       <c r="D77" t="n">
-        <v>3932556</v>
+        <v>3950946</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3308,10 +3308,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2191</v>
+        <v>2196</v>
       </c>
       <c r="D78" t="n">
-        <v>2893120</v>
+        <v>2899233</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3384,10 +3384,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4912</v>
+        <v>4918</v>
       </c>
       <c r="D80" t="n">
-        <v>6984873</v>
+        <v>6993073</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3422,10 +3422,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5724</v>
+        <v>5749</v>
       </c>
       <c r="D81" t="n">
-        <v>8071231</v>
+        <v>8121059</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3460,10 +3460,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="D82" t="n">
-        <v>1543726</v>
+        <v>1551226</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3498,10 +3498,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>7641</v>
+        <v>7711</v>
       </c>
       <c r="D83" t="n">
-        <v>11368028</v>
+        <v>11508075</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3536,10 +3536,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D84" t="n">
-        <v>609899</v>
+        <v>612899</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1659</v>
+        <v>1667</v>
       </c>
       <c r="D86" t="n">
-        <v>2341759</v>
+        <v>2367732</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3650,10 +3650,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4014</v>
+        <v>4039</v>
       </c>
       <c r="D87" t="n">
-        <v>5788396</v>
+        <v>5861958</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3688,10 +3688,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2411</v>
+        <v>2423</v>
       </c>
       <c r="D88" t="n">
-        <v>3210554</v>
+        <v>3243356</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3726,10 +3726,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1316</v>
+        <v>1334</v>
       </c>
       <c r="D89" t="n">
-        <v>1600492</v>
+        <v>1620757</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1848</v>
+        <v>1852</v>
       </c>
       <c r="D90" t="n">
-        <v>2473239</v>
+        <v>2477340</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3802,10 +3802,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1759</v>
+        <v>1779</v>
       </c>
       <c r="D91" t="n">
-        <v>2383277</v>
+        <v>2421243</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3840,10 +3840,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2993</v>
+        <v>3009</v>
       </c>
       <c r="D92" t="n">
-        <v>3622724</v>
+        <v>3635839</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3878,10 +3878,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5827</v>
+        <v>5839</v>
       </c>
       <c r="D93" t="n">
-        <v>8274260</v>
+        <v>8307638</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3954,10 +3954,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>11318</v>
+        <v>11374</v>
       </c>
       <c r="D95" t="n">
-        <v>14714788</v>
+        <v>14805600</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4030,10 +4030,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="D97" t="n">
-        <v>1659128</v>
+        <v>1671218</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4068,10 +4068,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>30698</v>
+        <v>30740</v>
       </c>
       <c r="D98" t="n">
-        <v>44171867</v>
+        <v>44252243</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -4106,10 +4106,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>47024</v>
+        <v>47264</v>
       </c>
       <c r="D99" t="n">
-        <v>62917286</v>
+        <v>63403799</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -4144,10 +4144,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>11162</v>
+        <v>11297</v>
       </c>
       <c r="D100" t="n">
-        <v>16022911</v>
+        <v>16359189</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -4182,10 +4182,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>38202</v>
+        <v>38584</v>
       </c>
       <c r="D101" t="n">
-        <v>56469514</v>
+        <v>57297278</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4220,10 +4220,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>4481</v>
+        <v>4513</v>
       </c>
       <c r="D102" t="n">
-        <v>5933671</v>
+        <v>5988655</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4258,10 +4258,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1978</v>
+        <v>1981</v>
       </c>
       <c r="D103" t="n">
-        <v>2745808</v>
+        <v>2752376</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4296,10 +4296,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>6233</v>
+        <v>6265</v>
       </c>
       <c r="D104" t="n">
-        <v>8412615</v>
+        <v>8462374</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4334,10 +4334,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>22255</v>
+        <v>22403</v>
       </c>
       <c r="D105" t="n">
-        <v>29940497</v>
+        <v>30192773</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>10298</v>
+        <v>10377</v>
       </c>
       <c r="D106" t="n">
-        <v>13980745</v>
+        <v>14223866</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4448,10 +4448,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>12588</v>
+        <v>12664</v>
       </c>
       <c r="D108" t="n">
-        <v>15168839</v>
+        <v>15269694</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4486,10 +4486,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>21886</v>
+        <v>21899</v>
       </c>
       <c r="D109" t="n">
-        <v>29703509</v>
+        <v>29724428</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4524,10 +4524,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>18116</v>
+        <v>18313</v>
       </c>
       <c r="D110" t="n">
-        <v>22429765</v>
+        <v>22828158</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4562,10 +4562,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>32981</v>
+        <v>33376</v>
       </c>
       <c r="D111" t="n">
-        <v>38797537</v>
+        <v>39073281</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4630,10 +4630,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>8210</v>
+        <v>8242</v>
       </c>
       <c r="D113" t="n">
-        <v>11374544</v>
+        <v>11453605</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4706,10 +4706,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>3473</v>
+        <v>3490</v>
       </c>
       <c r="D115" t="n">
-        <v>4930875</v>
+        <v>4962509</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4820,10 +4820,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>5584</v>
+        <v>5588</v>
       </c>
       <c r="D118" t="n">
-        <v>8085707</v>
+        <v>8089442</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4858,10 +4858,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>9286</v>
+        <v>9306</v>
       </c>
       <c r="D119" t="n">
-        <v>13032234</v>
+        <v>13074261</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4896,10 +4896,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>2871</v>
+        <v>2900</v>
       </c>
       <c r="D120" t="n">
-        <v>4087573</v>
+        <v>4138995</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4934,10 +4934,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>9312</v>
+        <v>9442</v>
       </c>
       <c r="D121" t="n">
-        <v>13908328</v>
+        <v>14212221</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4972,10 +4972,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="D122" t="n">
-        <v>1273319</v>
+        <v>1285060</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -5048,10 +5048,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1322</v>
+        <v>1327</v>
       </c>
       <c r="D124" t="n">
-        <v>1816997</v>
+        <v>1822883</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -5086,10 +5086,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>3490</v>
+        <v>3504</v>
       </c>
       <c r="D125" t="n">
-        <v>5018355</v>
+        <v>5062820</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -5124,10 +5124,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>5076</v>
+        <v>5127</v>
       </c>
       <c r="D126" t="n">
-        <v>7302994</v>
+        <v>7425864</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -5162,10 +5162,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2105</v>
+        <v>2109</v>
       </c>
       <c r="D127" t="n">
-        <v>2678112</v>
+        <v>2681907</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -5200,10 +5200,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="D128" t="n">
-        <v>3328364</v>
+        <v>3329864</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -5238,10 +5238,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>2080</v>
+        <v>2102</v>
       </c>
       <c r="D129" t="n">
-        <v>3049713</v>
+        <v>3126549</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -5276,10 +5276,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>3275</v>
+        <v>3285</v>
       </c>
       <c r="D130" t="n">
-        <v>4286440</v>
+        <v>4307907</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -5344,10 +5344,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>3944</v>
+        <v>3948</v>
       </c>
       <c r="D132" t="n">
-        <v>6824269</v>
+        <v>6837719</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -5420,10 +5420,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1797</v>
+        <v>1803</v>
       </c>
       <c r="D134" t="n">
-        <v>3557149</v>
+        <v>3590064</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -5534,10 +5534,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>4955</v>
+        <v>4969</v>
       </c>
       <c r="D137" t="n">
-        <v>10625290</v>
+        <v>10715437</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5572,10 +5572,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>4237</v>
+        <v>4249</v>
       </c>
       <c r="D138" t="n">
-        <v>8486506</v>
+        <v>8526705</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5610,10 +5610,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1408</v>
+        <v>1418</v>
       </c>
       <c r="D139" t="n">
-        <v>2931423</v>
+        <v>2964573</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5648,10 +5648,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>3024</v>
+        <v>3045</v>
       </c>
       <c r="D140" t="n">
-        <v>6150244</v>
+        <v>6231904</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5686,10 +5686,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D141" t="n">
-        <v>771341</v>
+        <v>772841</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5724,10 +5724,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D142" t="n">
-        <v>418029</v>
+        <v>421323</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -5800,10 +5800,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1723</v>
+        <v>1728</v>
       </c>
       <c r="D144" t="n">
-        <v>3401235</v>
+        <v>3431348</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5838,10 +5838,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1884</v>
+        <v>1890</v>
       </c>
       <c r="D145" t="n">
-        <v>3805206</v>
+        <v>3837545</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5876,10 +5876,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="D146" t="n">
-        <v>1222269</v>
+        <v>1233594</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -5914,10 +5914,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D147" t="n">
-        <v>1250564</v>
+        <v>1250778</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -5952,10 +5952,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="D148" t="n">
-        <v>1364574</v>
+        <v>1370574</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -5990,10 +5990,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1313</v>
+        <v>1319</v>
       </c>
       <c r="D149" t="n">
-        <v>2404292</v>
+        <v>2420390</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -6028,10 +6028,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>3051</v>
+        <v>3066</v>
       </c>
       <c r="D150" t="n">
-        <v>4194725</v>
+        <v>4214596</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -6104,10 +6104,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>8746</v>
+        <v>8800</v>
       </c>
       <c r="D152" t="n">
-        <v>10852668</v>
+        <v>10923564</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -6218,10 +6218,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>25417</v>
+        <v>25484</v>
       </c>
       <c r="D155" t="n">
-        <v>36289604</v>
+        <v>36434091</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -6256,10 +6256,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>45316</v>
+        <v>45616</v>
       </c>
       <c r="D156" t="n">
-        <v>58201994</v>
+        <v>58668983</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -6294,10 +6294,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>18578</v>
+        <v>18856</v>
       </c>
       <c r="D157" t="n">
-        <v>27168135</v>
+        <v>27824230</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -6332,10 +6332,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>37616</v>
+        <v>38052</v>
       </c>
       <c r="D158" t="n">
-        <v>57512499</v>
+        <v>58717628</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -6370,10 +6370,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>4465</v>
+        <v>4491</v>
       </c>
       <c r="D159" t="n">
-        <v>5977762</v>
+        <v>6051949</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -6408,10 +6408,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>2031</v>
+        <v>2044</v>
       </c>
       <c r="D160" t="n">
-        <v>2897473</v>
+        <v>2931863</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -6446,10 +6446,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>5573</v>
+        <v>5599</v>
       </c>
       <c r="D161" t="n">
-        <v>7635347</v>
+        <v>7708150</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -6484,10 +6484,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>21759</v>
+        <v>21950</v>
       </c>
       <c r="D162" t="n">
-        <v>30061747</v>
+        <v>30464249</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -6522,10 +6522,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>10119</v>
+        <v>10197</v>
       </c>
       <c r="D163" t="n">
-        <v>13728490</v>
+        <v>14020738</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -6598,10 +6598,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>11155</v>
+        <v>11243</v>
       </c>
       <c r="D165" t="n">
-        <v>13644939</v>
+        <v>13771315</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -6636,10 +6636,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>22449</v>
+        <v>22474</v>
       </c>
       <c r="D166" t="n">
-        <v>30357940</v>
+        <v>30392488</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>17847</v>
+        <v>18099</v>
       </c>
       <c r="D167" t="n">
-        <v>23068206</v>
+        <v>23633706</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -6712,10 +6712,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>31353</v>
+        <v>31731</v>
       </c>
       <c r="D168" t="n">
-        <v>36220053</v>
+        <v>36485462</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -6750,10 +6750,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="D169" t="n">
-        <v>1344279</v>
+        <v>1354413</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -6826,10 +6826,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>24672</v>
+        <v>24866</v>
       </c>
       <c r="D171" t="n">
-        <v>33543373</v>
+        <v>33968328</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -6864,10 +6864,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="D172" t="n">
-        <v>822843</v>
+        <v>867092</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -6902,10 +6902,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="D173" t="n">
-        <v>1470298</v>
+        <v>1479248</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -6940,10 +6940,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>68567</v>
+        <v>68829</v>
       </c>
       <c r="D174" t="n">
-        <v>99901358</v>
+        <v>100581780</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -6978,10 +6978,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>133267</v>
+        <v>134410</v>
       </c>
       <c r="D175" t="n">
-        <v>190066461</v>
+        <v>193275942</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -7016,10 +7016,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>283750</v>
+        <v>289468</v>
       </c>
       <c r="D176" t="n">
-        <v>443129031</v>
+        <v>459100104</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -7054,10 +7054,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>113198</v>
+        <v>114962</v>
       </c>
       <c r="D177" t="n">
-        <v>190480402</v>
+        <v>197896535</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -7092,10 +7092,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>49512</v>
+        <v>50071</v>
       </c>
       <c r="D178" t="n">
-        <v>71566055</v>
+        <v>73107531</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -7130,10 +7130,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>9459</v>
+        <v>9550</v>
       </c>
       <c r="D179" t="n">
-        <v>14067534</v>
+        <v>14343202</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -7168,10 +7168,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>23630</v>
+        <v>23809</v>
       </c>
       <c r="D180" t="n">
-        <v>34341830</v>
+        <v>34744134</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -7206,10 +7206,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>162581</v>
+        <v>164101</v>
       </c>
       <c r="D181" t="n">
-        <v>230356377</v>
+        <v>233855347</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -7244,10 +7244,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>53322</v>
+        <v>54028</v>
       </c>
       <c r="D182" t="n">
-        <v>79760590</v>
+        <v>81884180</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -7320,10 +7320,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>48518</v>
+        <v>49081</v>
       </c>
       <c r="D184" t="n">
-        <v>60378847</v>
+        <v>61382276</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -7358,10 +7358,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>59859</v>
+        <v>59980</v>
       </c>
       <c r="D185" t="n">
-        <v>80616192</v>
+        <v>80789072</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -7396,10 +7396,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>100262</v>
+        <v>101636</v>
       </c>
       <c r="D186" t="n">
-        <v>137384619</v>
+        <v>140669039</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -7434,10 +7434,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>69059</v>
+        <v>69790</v>
       </c>
       <c r="D187" t="n">
-        <v>90454437</v>
+        <v>91551936</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -7472,10 +7472,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>5381</v>
+        <v>5392</v>
       </c>
       <c r="D188" t="n">
-        <v>7172020</v>
+        <v>7197836</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -7548,10 +7548,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>4410</v>
+        <v>4424</v>
       </c>
       <c r="D190" t="n">
-        <v>5902570</v>
+        <v>5929082</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -7662,10 +7662,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>7748</v>
+        <v>7751</v>
       </c>
       <c r="D193" t="n">
-        <v>11290859</v>
+        <v>11307518</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -7700,10 +7700,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>14566</v>
+        <v>14608</v>
       </c>
       <c r="D194" t="n">
-        <v>20068222</v>
+        <v>20200288</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -7738,10 +7738,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2178</v>
+        <v>2186</v>
       </c>
       <c r="D195" t="n">
-        <v>3049984</v>
+        <v>3057894</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -7776,10 +7776,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>9860</v>
+        <v>9934</v>
       </c>
       <c r="D196" t="n">
-        <v>14149333</v>
+        <v>14295051</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -7814,10 +7814,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1173</v>
+        <v>1179</v>
       </c>
       <c r="D197" t="n">
-        <v>1598739</v>
+        <v>1608949</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -7890,10 +7890,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1791</v>
+        <v>1794</v>
       </c>
       <c r="D199" t="n">
-        <v>2481363</v>
+        <v>2485153</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -7928,10 +7928,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>4767</v>
+        <v>4789</v>
       </c>
       <c r="D200" t="n">
-        <v>6731449</v>
+        <v>6785567</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -7966,10 +7966,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>3132</v>
+        <v>3148</v>
       </c>
       <c r="D201" t="n">
-        <v>4437721</v>
+        <v>4470600</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -8004,10 +8004,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>4047</v>
+        <v>4056</v>
       </c>
       <c r="D202" t="n">
-        <v>5245275</v>
+        <v>5257337</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -8042,10 +8042,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>5280</v>
+        <v>5281</v>
       </c>
       <c r="D203" t="n">
-        <v>7457921</v>
+        <v>7459071</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -8080,10 +8080,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>3680</v>
+        <v>3708</v>
       </c>
       <c r="D204" t="n">
-        <v>5068602</v>
+        <v>5128036</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -8118,10 +8118,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>5378</v>
+        <v>5380</v>
       </c>
       <c r="D205" t="n">
-        <v>6869069</v>
+        <v>6873863</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -8156,10 +8156,10 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>2142</v>
+        <v>2157</v>
       </c>
       <c r="D206" t="n">
-        <v>2760333</v>
+        <v>2792457</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -8194,10 +8194,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>2266</v>
+        <v>2280</v>
       </c>
       <c r="D207" t="n">
-        <v>3089715</v>
+        <v>3108949</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -8308,10 +8308,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>3245</v>
+        <v>3248</v>
       </c>
       <c r="D210" t="n">
-        <v>4711854</v>
+        <v>4727041</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -8346,10 +8346,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>5996</v>
+        <v>6023</v>
       </c>
       <c r="D211" t="n">
-        <v>8362407</v>
+        <v>8427386</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -8384,10 +8384,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>2403</v>
+        <v>2419</v>
       </c>
       <c r="D212" t="n">
-        <v>3444559</v>
+        <v>3480854</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -8422,10 +8422,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>4579</v>
+        <v>4628</v>
       </c>
       <c r="D213" t="n">
-        <v>6813132</v>
+        <v>6960483</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -8460,10 +8460,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="D214" t="n">
-        <v>929222</v>
+        <v>940715</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -8536,10 +8536,10 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="D216" t="n">
-        <v>1142177</v>
+        <v>1161671</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -8574,10 +8574,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>2812</v>
+        <v>2827</v>
       </c>
       <c r="D217" t="n">
-        <v>3941312</v>
+        <v>3972430</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -8612,10 +8612,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>3126</v>
+        <v>3156</v>
       </c>
       <c r="D218" t="n">
-        <v>4477252</v>
+        <v>4540919</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -8650,10 +8650,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>1545</v>
+        <v>1554</v>
       </c>
       <c r="D219" t="n">
-        <v>2009493</v>
+        <v>2027717</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -8688,10 +8688,10 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>1970</v>
+        <v>1973</v>
       </c>
       <c r="D220" t="n">
-        <v>2747357</v>
+        <v>2753257</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -8726,10 +8726,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1496</v>
+        <v>1511</v>
       </c>
       <c r="D221" t="n">
-        <v>2139562</v>
+        <v>2181331</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -8764,10 +8764,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>3052</v>
+        <v>3077</v>
       </c>
       <c r="D222" t="n">
-        <v>3998478</v>
+        <v>4034674</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -8832,10 +8832,10 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>5728</v>
+        <v>5748</v>
       </c>
       <c r="D224" t="n">
-        <v>11873253</v>
+        <v>11942186</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -8870,10 +8870,10 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="D225" t="n">
-        <v>2189432</v>
+        <v>2223145</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -8946,10 +8946,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>3454</v>
+        <v>3473</v>
       </c>
       <c r="D227" t="n">
-        <v>7399604</v>
+        <v>7529770</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -8984,10 +8984,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>15596</v>
+        <v>15646</v>
       </c>
       <c r="D228" t="n">
-        <v>31764301</v>
+        <v>32014722</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -9022,10 +9022,10 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>2976</v>
+        <v>2993</v>
       </c>
       <c r="D229" t="n">
-        <v>6316229</v>
+        <v>6437866</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -9060,10 +9060,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>1708</v>
+        <v>1723</v>
       </c>
       <c r="D230" t="n">
-        <v>3546094</v>
+        <v>3590421</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -9098,10 +9098,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D231" t="n">
-        <v>375076</v>
+        <v>378716</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -9212,10 +9212,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D234" t="n">
-        <v>1066213</v>
+        <v>1076864</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -9250,10 +9250,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="D235" t="n">
-        <v>1301511</v>
+        <v>1339655</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -9288,10 +9288,10 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D236" t="n">
-        <v>823232</v>
+        <v>838055</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -9364,10 +9364,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D238" t="n">
-        <v>597112</v>
+        <v>598612</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -9402,10 +9402,10 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="D239" t="n">
-        <v>1086191</v>
+        <v>1109381</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -9440,10 +9440,10 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>3420</v>
+        <v>3429</v>
       </c>
       <c r="D240" t="n">
-        <v>4725954</v>
+        <v>4751729</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -9516,10 +9516,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>6043</v>
+        <v>6079</v>
       </c>
       <c r="D242" t="n">
-        <v>7632950</v>
+        <v>7687144</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -9630,10 +9630,10 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>15690</v>
+        <v>15707</v>
       </c>
       <c r="D245" t="n">
-        <v>22498751</v>
+        <v>22544859</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -9668,10 +9668,10 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>28192</v>
+        <v>28344</v>
       </c>
       <c r="D246" t="n">
-        <v>36897244</v>
+        <v>37114496</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -9706,10 +9706,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>6149</v>
+        <v>6226</v>
       </c>
       <c r="D247" t="n">
-        <v>8985065</v>
+        <v>9194674</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -9744,10 +9744,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>24960</v>
+        <v>25216</v>
       </c>
       <c r="D248" t="n">
-        <v>37305790</v>
+        <v>37951911</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -9782,10 +9782,10 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>2457</v>
+        <v>2469</v>
       </c>
       <c r="D249" t="n">
-        <v>3216506</v>
+        <v>3243008</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -9820,10 +9820,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>1252</v>
+        <v>1260</v>
       </c>
       <c r="D250" t="n">
-        <v>1746361</v>
+        <v>1756576</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -9858,10 +9858,10 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>4187</v>
+        <v>4206</v>
       </c>
       <c r="D251" t="n">
-        <v>5623293</v>
+        <v>5661331</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -9896,10 +9896,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>12725</v>
+        <v>12818</v>
       </c>
       <c r="D252" t="n">
-        <v>17462146</v>
+        <v>17670650</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -9934,10 +9934,10 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>6294</v>
+        <v>6354</v>
       </c>
       <c r="D253" t="n">
-        <v>8568996</v>
+        <v>8711526</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -10010,10 +10010,10 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>7259</v>
+        <v>7310</v>
       </c>
       <c r="D255" t="n">
-        <v>8628518</v>
+        <v>8687419</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -10048,10 +10048,10 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>10733</v>
+        <v>10739</v>
       </c>
       <c r="D256" t="n">
-        <v>14111138</v>
+        <v>14118278</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -10086,10 +10086,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>11307</v>
+        <v>11438</v>
       </c>
       <c r="D257" t="n">
-        <v>14283776</v>
+        <v>14543272</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -10124,10 +10124,10 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>19063</v>
+        <v>19262</v>
       </c>
       <c r="D258" t="n">
-        <v>22660859</v>
+        <v>22791295</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -10162,10 +10162,10 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>13139</v>
+        <v>13161</v>
       </c>
       <c r="D259" t="n">
-        <v>18374624</v>
+        <v>18432641</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -10238,10 +10238,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>18487</v>
+        <v>18559</v>
       </c>
       <c r="D261" t="n">
-        <v>22657309</v>
+        <v>22763024</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -10314,10 +10314,10 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>970</v>
+        <v>977</v>
       </c>
       <c r="D263" t="n">
-        <v>1107424</v>
+        <v>1116443</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -10352,10 +10352,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>45480</v>
+        <v>45526</v>
       </c>
       <c r="D264" t="n">
-        <v>64545852</v>
+        <v>64626815</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -10390,10 +10390,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>69122</v>
+        <v>69404</v>
       </c>
       <c r="D265" t="n">
-        <v>91341444</v>
+        <v>91864335</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -10428,10 +10428,10 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>15787</v>
+        <v>15943</v>
       </c>
       <c r="D266" t="n">
-        <v>22699051</v>
+        <v>23151463</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -10466,10 +10466,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>55718</v>
+        <v>56241</v>
       </c>
       <c r="D267" t="n">
-        <v>80579921</v>
+        <v>81642144</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -10504,10 +10504,10 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>7029</v>
+        <v>7076</v>
       </c>
       <c r="D268" t="n">
-        <v>9329501</v>
+        <v>9431607</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -10542,10 +10542,10 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>3023</v>
+        <v>3027</v>
       </c>
       <c r="D269" t="n">
-        <v>4259185</v>
+        <v>4277793</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -10580,10 +10580,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>12074</v>
+        <v>12110</v>
       </c>
       <c r="D270" t="n">
-        <v>16089874</v>
+        <v>16175428</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -10618,10 +10618,10 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>36507</v>
+        <v>36704</v>
       </c>
       <c r="D271" t="n">
-        <v>49323381</v>
+        <v>49680068</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -10656,10 +10656,10 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>19324</v>
+        <v>19456</v>
       </c>
       <c r="D272" t="n">
-        <v>25687774</v>
+        <v>26030680</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -10732,10 +10732,10 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>21568</v>
+        <v>21741</v>
       </c>
       <c r="D274" t="n">
-        <v>25091547</v>
+        <v>25328641</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -10770,10 +10770,10 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>34879</v>
+        <v>34900</v>
       </c>
       <c r="D275" t="n">
-        <v>45868359</v>
+        <v>45886647</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -10808,10 +10808,10 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>28350</v>
+        <v>28636</v>
       </c>
       <c r="D276" t="n">
-        <v>35491615</v>
+        <v>35995568</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -10846,10 +10846,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>43896</v>
+        <v>44334</v>
       </c>
       <c r="D277" t="n">
-        <v>51543152</v>
+        <v>51839214</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -10884,10 +10884,10 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>14301</v>
+        <v>14356</v>
       </c>
       <c r="D278" t="n">
-        <v>19410874</v>
+        <v>19511489</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -10960,10 +10960,10 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>20188</v>
+        <v>20281</v>
       </c>
       <c r="D280" t="n">
-        <v>25056410</v>
+        <v>25178933</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -11036,10 +11036,10 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>812</v>
+        <v>820</v>
       </c>
       <c r="D282" t="n">
-        <v>1070882</v>
+        <v>1091046</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -11074,10 +11074,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>58979</v>
+        <v>59127</v>
       </c>
       <c r="D283" t="n">
-        <v>83783080</v>
+        <v>84052455</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -11112,10 +11112,10 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>79512</v>
+        <v>80065</v>
       </c>
       <c r="D284" t="n">
-        <v>106236387</v>
+        <v>107371988</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -11150,10 +11150,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>18774</v>
+        <v>19012</v>
       </c>
       <c r="D285" t="n">
-        <v>27267471</v>
+        <v>27875017</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -11188,10 +11188,10 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>69129</v>
+        <v>69853</v>
       </c>
       <c r="D286" t="n">
-        <v>104011129</v>
+        <v>106085839</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -11226,10 +11226,10 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>8601</v>
+        <v>8678</v>
       </c>
       <c r="D287" t="n">
-        <v>11280522</v>
+        <v>11416401</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -11264,10 +11264,10 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>3244</v>
+        <v>3256</v>
       </c>
       <c r="D288" t="n">
-        <v>4541752</v>
+        <v>4564177</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -11302,10 +11302,10 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>13815</v>
+        <v>13884</v>
       </c>
       <c r="D289" t="n">
-        <v>18617503</v>
+        <v>18759301</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -11340,10 +11340,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>42221</v>
+        <v>42517</v>
       </c>
       <c r="D290" t="n">
-        <v>58230441</v>
+        <v>58837088</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -11378,10 +11378,10 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>20980</v>
+        <v>21110</v>
       </c>
       <c r="D291" t="n">
-        <v>28071842</v>
+        <v>28388789</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -11454,10 +11454,10 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>26754</v>
+        <v>27003</v>
       </c>
       <c r="D293" t="n">
-        <v>31421089</v>
+        <v>31769890</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -11492,10 +11492,10 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>38310</v>
+        <v>38364</v>
       </c>
       <c r="D294" t="n">
-        <v>50609927</v>
+        <v>50665340</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -11530,10 +11530,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>33967</v>
+        <v>34354</v>
       </c>
       <c r="D295" t="n">
-        <v>43235896</v>
+        <v>44062934</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -11568,10 +11568,10 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>45350</v>
+        <v>45816</v>
       </c>
       <c r="D296" t="n">
-        <v>52228766</v>
+        <v>52630332</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -11606,10 +11606,10 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>4257</v>
+        <v>4270</v>
       </c>
       <c r="D297" t="n">
-        <v>5973121</v>
+        <v>5996880</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -11682,10 +11682,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>8322</v>
+        <v>8347</v>
       </c>
       <c r="D299" t="n">
-        <v>10254447</v>
+        <v>10295606</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -11758,10 +11758,10 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D301" t="n">
-        <v>713017</v>
+        <v>715101</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -11796,10 +11796,10 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>18364</v>
+        <v>18381</v>
       </c>
       <c r="D302" t="n">
-        <v>26353193</v>
+        <v>26386655</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -11834,10 +11834,10 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>29962</v>
+        <v>30092</v>
       </c>
       <c r="D303" t="n">
-        <v>39396512</v>
+        <v>39596953</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -11872,10 +11872,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>8212</v>
+        <v>8305</v>
       </c>
       <c r="D304" t="n">
-        <v>12089679</v>
+        <v>12369309</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -11910,10 +11910,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>26546</v>
+        <v>26820</v>
       </c>
       <c r="D305" t="n">
-        <v>38627340</v>
+        <v>39155574</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -11948,10 +11948,10 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>4128</v>
+        <v>4155</v>
       </c>
       <c r="D306" t="n">
-        <v>5387681</v>
+        <v>5443879</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -11986,10 +11986,10 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>1866</v>
+        <v>1870</v>
       </c>
       <c r="D307" t="n">
-        <v>2638679</v>
+        <v>2641343</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -12024,10 +12024,10 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>5907</v>
+        <v>5924</v>
       </c>
       <c r="D308" t="n">
-        <v>7992990</v>
+        <v>8044543</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -12062,10 +12062,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>19470</v>
+        <v>19565</v>
       </c>
       <c r="D309" t="n">
-        <v>26432633</v>
+        <v>26587104</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -12100,10 +12100,10 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>7558</v>
+        <v>7605</v>
       </c>
       <c r="D310" t="n">
-        <v>10286871</v>
+        <v>10386593</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -12138,10 +12138,10 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>9518</v>
+        <v>9572</v>
       </c>
       <c r="D311" t="n">
-        <v>11336153</v>
+        <v>11397120</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -12176,10 +12176,10 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>19401</v>
+        <v>19411</v>
       </c>
       <c r="D312" t="n">
-        <v>25506133</v>
+        <v>25515938</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -12214,10 +12214,10 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>15581</v>
+        <v>15759</v>
       </c>
       <c r="D313" t="n">
-        <v>19783749</v>
+        <v>20146812</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -12252,10 +12252,10 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>22323</v>
+        <v>22616</v>
       </c>
       <c r="D314" t="n">
-        <v>26605394</v>
+        <v>26786259</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -12290,10 +12290,10 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>5956</v>
+        <v>5992</v>
       </c>
       <c r="D315" t="n">
-        <v>8290445</v>
+        <v>8382209</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -12366,10 +12366,10 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>19413</v>
+        <v>19524</v>
       </c>
       <c r="D317" t="n">
-        <v>25330349</v>
+        <v>25516440</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -12442,10 +12442,10 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D319" t="n">
-        <v>458010</v>
+        <v>459510</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -12480,10 +12480,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>52052</v>
+        <v>52216</v>
       </c>
       <c r="D320" t="n">
-        <v>74512045</v>
+        <v>74806442</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -12518,10 +12518,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>84637</v>
+        <v>85267</v>
       </c>
       <c r="D321" t="n">
-        <v>114687365</v>
+        <v>115847364</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -12556,10 +12556,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>34529</v>
+        <v>35099</v>
       </c>
       <c r="D322" t="n">
-        <v>53044210</v>
+        <v>54610609</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -12594,10 +12594,10 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>68854</v>
+        <v>69699</v>
       </c>
       <c r="D323" t="n">
-        <v>108226868</v>
+        <v>110952284</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -12632,10 +12632,10 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>9400</v>
+        <v>9482</v>
       </c>
       <c r="D324" t="n">
-        <v>12720365</v>
+        <v>12865535</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -12670,10 +12670,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>3675</v>
+        <v>3691</v>
       </c>
       <c r="D325" t="n">
-        <v>5243340</v>
+        <v>5281063</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -12708,10 +12708,10 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>17418</v>
+        <v>17510</v>
       </c>
       <c r="D326" t="n">
-        <v>24514036</v>
+        <v>24735358</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -12746,10 +12746,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>45709</v>
+        <v>46058</v>
       </c>
       <c r="D327" t="n">
-        <v>63483015</v>
+        <v>64261165</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -12784,10 +12784,10 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>26703</v>
+        <v>26955</v>
       </c>
       <c r="D328" t="n">
-        <v>37437974</v>
+        <v>38088120</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -12860,10 +12860,10 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>28541</v>
+        <v>28793</v>
       </c>
       <c r="D330" t="n">
-        <v>34719445</v>
+        <v>35088153</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -12898,10 +12898,10 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>35218</v>
+        <v>35258</v>
       </c>
       <c r="D331" t="n">
-        <v>46669006</v>
+        <v>46706743</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -12936,10 +12936,10 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>31988</v>
+        <v>32389</v>
       </c>
       <c r="D332" t="n">
-        <v>42720258</v>
+        <v>43635667</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -12974,10 +12974,10 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>45635</v>
+        <v>46049</v>
       </c>
       <c r="D333" t="n">
-        <v>54463010</v>
+        <v>54954759</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
